--- a/input/dynamic_data/season_17/forecasting_method/average/argentina/forecast_point_GW21.xlsx
+++ b/input/dynamic_data/season_17/forecasting_method/average/argentina/forecast_point_GW21.xlsx
@@ -1699,37 +1699,37 @@
         <v>42.0</v>
       </c>
       <c r="B43" t="n">
-        <v>5.1256578922500005</v>
+        <v>0.0</v>
       </c>
       <c r="C43" t="n">
-        <v>5.1256578922500005</v>
+        <v>0.0</v>
       </c>
       <c r="D43" t="n">
-        <v>5.1256578922500005</v>
+        <v>0.0</v>
       </c>
       <c r="E43" t="n">
-        <v>5.1256578922500005</v>
+        <v>0.0</v>
       </c>
       <c r="F43" t="n">
-        <v>5.1256578922500005</v>
+        <v>0.0</v>
       </c>
       <c r="G43" t="n">
-        <v>5.1256578922500005</v>
+        <v>0.0</v>
       </c>
       <c r="H43" t="n">
-        <v>5.1256578922500005</v>
+        <v>0.0</v>
       </c>
       <c r="I43" t="n">
-        <v>5.1256578922500005</v>
+        <v>0.0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.1256578922500005</v>
+        <v>0.0</v>
       </c>
       <c r="K43" t="n">
-        <v>5.1256578922500005</v>
+        <v>0.0</v>
       </c>
       <c r="L43" t="n">
-        <v>5.1256578922500005</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="44">
@@ -3067,37 +3067,37 @@
         <v>78.0</v>
       </c>
       <c r="B79" t="n">
-        <v>1.9061000008819997</v>
+        <v>0.0</v>
       </c>
       <c r="C79" t="n">
-        <v>1.9061000008819997</v>
+        <v>0.0</v>
       </c>
       <c r="D79" t="n">
-        <v>1.9061000008819997</v>
+        <v>0.0</v>
       </c>
       <c r="E79" t="n">
-        <v>1.9061000008819997</v>
+        <v>0.0</v>
       </c>
       <c r="F79" t="n">
-        <v>1.9061000008819997</v>
+        <v>0.0</v>
       </c>
       <c r="G79" t="n">
-        <v>1.9061000008819997</v>
+        <v>0.0</v>
       </c>
       <c r="H79" t="n">
-        <v>1.9061000008819997</v>
+        <v>0.0</v>
       </c>
       <c r="I79" t="n">
-        <v>1.9061000008819997</v>
+        <v>0.0</v>
       </c>
       <c r="J79" t="n">
-        <v>1.9061000008819997</v>
+        <v>0.0</v>
       </c>
       <c r="K79" t="n">
-        <v>1.9061000008819997</v>
+        <v>0.0</v>
       </c>
       <c r="L79" t="n">
-        <v>1.9061000008819997</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="80">
@@ -3941,37 +3941,37 @@
         <v>101.0</v>
       </c>
       <c r="B102" t="n">
-        <v>1.8963000006859998</v>
+        <v>0.0</v>
       </c>
       <c r="C102" t="n">
-        <v>1.8963000006859998</v>
+        <v>0.0</v>
       </c>
       <c r="D102" t="n">
-        <v>1.8963000006859998</v>
+        <v>0.0</v>
       </c>
       <c r="E102" t="n">
-        <v>1.8963000006859998</v>
+        <v>0.0</v>
       </c>
       <c r="F102" t="n">
-        <v>1.8963000006859998</v>
+        <v>0.0</v>
       </c>
       <c r="G102" t="n">
-        <v>1.8963000006859998</v>
+        <v>0.0</v>
       </c>
       <c r="H102" t="n">
-        <v>1.8963000006859998</v>
+        <v>0.0</v>
       </c>
       <c r="I102" t="n">
-        <v>1.8963000006859998</v>
+        <v>0.0</v>
       </c>
       <c r="J102" t="n">
-        <v>1.8963000006859998</v>
+        <v>0.0</v>
       </c>
       <c r="K102" t="n">
-        <v>1.8963000006859998</v>
+        <v>0.0</v>
       </c>
       <c r="L102" t="n">
-        <v>1.8963000006859998</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="103">
@@ -5803,37 +5803,37 @@
         <v>150.0</v>
       </c>
       <c r="B151" t="n">
-        <v>0.9336250002425</v>
+        <v>0.0</v>
       </c>
       <c r="C151" t="n">
-        <v>0.9336250002425</v>
+        <v>0.0</v>
       </c>
       <c r="D151" t="n">
-        <v>0.9336250002425</v>
+        <v>0.0</v>
       </c>
       <c r="E151" t="n">
-        <v>0.9336250002425</v>
+        <v>0.0</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9336250002425</v>
+        <v>0.0</v>
       </c>
       <c r="G151" t="n">
-        <v>0.9336250002425</v>
+        <v>0.0</v>
       </c>
       <c r="H151" t="n">
-        <v>0.9336250002425</v>
+        <v>0.0</v>
       </c>
       <c r="I151" t="n">
-        <v>0.9336250002425</v>
+        <v>0.0</v>
       </c>
       <c r="J151" t="n">
-        <v>0.9336250002425</v>
+        <v>0.0</v>
       </c>
       <c r="K151" t="n">
-        <v>0.9336250002425</v>
+        <v>0.0</v>
       </c>
       <c r="L151" t="n">
-        <v>0.9336250002425</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="152">
@@ -6031,37 +6031,37 @@
         <v>156.0</v>
       </c>
       <c r="B157" t="n">
-        <v>0.31120833341416665</v>
+        <v>0.0</v>
       </c>
       <c r="C157" t="n">
-        <v>0.31120833341416665</v>
+        <v>0.0</v>
       </c>
       <c r="D157" t="n">
-        <v>0.31120833341416665</v>
+        <v>0.0</v>
       </c>
       <c r="E157" t="n">
-        <v>0.31120833341416665</v>
+        <v>0.0</v>
       </c>
       <c r="F157" t="n">
-        <v>0.31120833341416665</v>
+        <v>0.0</v>
       </c>
       <c r="G157" t="n">
-        <v>0.31120833341416665</v>
+        <v>0.0</v>
       </c>
       <c r="H157" t="n">
-        <v>0.31120833341416665</v>
+        <v>0.0</v>
       </c>
       <c r="I157" t="n">
-        <v>0.31120833341416665</v>
+        <v>0.0</v>
       </c>
       <c r="J157" t="n">
-        <v>0.31120833341416665</v>
+        <v>0.0</v>
       </c>
       <c r="K157" t="n">
-        <v>0.31120833341416665</v>
+        <v>0.0</v>
       </c>
       <c r="L157" t="n">
-        <v>0.31120833341416665</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="158">
@@ -6601,37 +6601,37 @@
         <v>171.0</v>
       </c>
       <c r="B172" t="n">
-        <v>2.304225</v>
+        <v>0.0</v>
       </c>
       <c r="C172" t="n">
-        <v>2.304225</v>
+        <v>0.0</v>
       </c>
       <c r="D172" t="n">
-        <v>2.304225</v>
+        <v>0.0</v>
       </c>
       <c r="E172" t="n">
-        <v>2.304225</v>
+        <v>0.0</v>
       </c>
       <c r="F172" t="n">
-        <v>2.304225</v>
+        <v>0.0</v>
       </c>
       <c r="G172" t="n">
-        <v>2.304225</v>
+        <v>0.0</v>
       </c>
       <c r="H172" t="n">
-        <v>2.304225</v>
+        <v>0.0</v>
       </c>
       <c r="I172" t="n">
-        <v>2.304225</v>
+        <v>0.0</v>
       </c>
       <c r="J172" t="n">
-        <v>2.304225</v>
+        <v>0.0</v>
       </c>
       <c r="K172" t="n">
-        <v>2.304225</v>
+        <v>0.0</v>
       </c>
       <c r="L172" t="n">
-        <v>2.304225</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="173">
@@ -7095,37 +7095,37 @@
         <v>184.0</v>
       </c>
       <c r="B185" t="n">
-        <v>1.075034210418</v>
+        <v>0.0</v>
       </c>
       <c r="C185" t="n">
-        <v>1.075034210418</v>
+        <v>0.0</v>
       </c>
       <c r="D185" t="n">
-        <v>1.075034210418</v>
+        <v>0.0</v>
       </c>
       <c r="E185" t="n">
-        <v>1.075034210418</v>
+        <v>0.0</v>
       </c>
       <c r="F185" t="n">
-        <v>1.075034210418</v>
+        <v>0.0</v>
       </c>
       <c r="G185" t="n">
-        <v>1.075034210418</v>
+        <v>0.0</v>
       </c>
       <c r="H185" t="n">
-        <v>1.075034210418</v>
+        <v>0.0</v>
       </c>
       <c r="I185" t="n">
-        <v>1.075034210418</v>
+        <v>0.0</v>
       </c>
       <c r="J185" t="n">
-        <v>1.075034210418</v>
+        <v>0.0</v>
       </c>
       <c r="K185" t="n">
-        <v>1.075034210418</v>
+        <v>0.0</v>
       </c>
       <c r="L185" t="n">
-        <v>1.075034210418</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="186">
@@ -7171,37 +7171,37 @@
         <v>186.0</v>
       </c>
       <c r="B187" t="n">
-        <v>2.5084131576420003</v>
+        <v>0.0</v>
       </c>
       <c r="C187" t="n">
-        <v>2.5084131576420003</v>
+        <v>0.0</v>
       </c>
       <c r="D187" t="n">
-        <v>2.5084131576420003</v>
+        <v>0.0</v>
       </c>
       <c r="E187" t="n">
-        <v>2.5084131576420003</v>
+        <v>0.0</v>
       </c>
       <c r="F187" t="n">
-        <v>2.5084131576420003</v>
+        <v>0.0</v>
       </c>
       <c r="G187" t="n">
-        <v>2.5084131576420003</v>
+        <v>0.0</v>
       </c>
       <c r="H187" t="n">
-        <v>2.5084131576420003</v>
+        <v>0.0</v>
       </c>
       <c r="I187" t="n">
-        <v>2.5084131576420003</v>
+        <v>0.0</v>
       </c>
       <c r="J187" t="n">
-        <v>2.5084131576420003</v>
+        <v>0.0</v>
       </c>
       <c r="K187" t="n">
-        <v>2.5084131576420003</v>
+        <v>0.0</v>
       </c>
       <c r="L187" t="n">
-        <v>2.5084131576420003</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="188">
@@ -7437,37 +7437,37 @@
         <v>193.0</v>
       </c>
       <c r="B194" t="n">
-        <v>0.669752631254</v>
+        <v>0.0</v>
       </c>
       <c r="C194" t="n">
-        <v>0.669752631254</v>
+        <v>0.0</v>
       </c>
       <c r="D194" t="n">
-        <v>0.669752631254</v>
+        <v>0.0</v>
       </c>
       <c r="E194" t="n">
-        <v>0.669752631254</v>
+        <v>0.0</v>
       </c>
       <c r="F194" t="n">
-        <v>0.669752631254</v>
+        <v>0.0</v>
       </c>
       <c r="G194" t="n">
-        <v>0.669752631254</v>
+        <v>0.0</v>
       </c>
       <c r="H194" t="n">
-        <v>0.669752631254</v>
+        <v>0.0</v>
       </c>
       <c r="I194" t="n">
-        <v>0.669752631254</v>
+        <v>0.0</v>
       </c>
       <c r="J194" t="n">
-        <v>0.669752631254</v>
+        <v>0.0</v>
       </c>
       <c r="K194" t="n">
-        <v>0.669752631254</v>
+        <v>0.0</v>
       </c>
       <c r="L194" t="n">
-        <v>0.669752631254</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="195">
@@ -7627,37 +7627,37 @@
         <v>198.0</v>
       </c>
       <c r="B199" t="n">
-        <v>0.6092333331046667</v>
+        <v>0.0</v>
       </c>
       <c r="C199" t="n">
-        <v>0.6092333331046667</v>
+        <v>0.0</v>
       </c>
       <c r="D199" t="n">
-        <v>0.6092333331046667</v>
+        <v>0.0</v>
       </c>
       <c r="E199" t="n">
-        <v>0.6092333331046667</v>
+        <v>0.0</v>
       </c>
       <c r="F199" t="n">
-        <v>0.6092333331046667</v>
+        <v>0.0</v>
       </c>
       <c r="G199" t="n">
-        <v>0.6092333331046667</v>
+        <v>0.0</v>
       </c>
       <c r="H199" t="n">
-        <v>0.6092333331046667</v>
+        <v>0.0</v>
       </c>
       <c r="I199" t="n">
-        <v>0.6092333331046667</v>
+        <v>0.0</v>
       </c>
       <c r="J199" t="n">
-        <v>0.6092333331046667</v>
+        <v>0.0</v>
       </c>
       <c r="K199" t="n">
-        <v>0.6092333331046667</v>
+        <v>0.0</v>
       </c>
       <c r="L199" t="n">
-        <v>0.6092333331046667</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="200">
@@ -7665,37 +7665,37 @@
         <v>199.0</v>
       </c>
       <c r="B200" t="n">
-        <v>0.2952916665558333</v>
+        <v>0.0</v>
       </c>
       <c r="C200" t="n">
-        <v>0.2952916665558333</v>
+        <v>0.0</v>
       </c>
       <c r="D200" t="n">
-        <v>0.2952916665558333</v>
+        <v>0.0</v>
       </c>
       <c r="E200" t="n">
-        <v>0.2952916665558333</v>
+        <v>0.0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.2952916665558333</v>
+        <v>0.0</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2952916665558333</v>
+        <v>0.0</v>
       </c>
       <c r="H200" t="n">
-        <v>0.2952916665558333</v>
+        <v>0.0</v>
       </c>
       <c r="I200" t="n">
-        <v>0.2952916665558333</v>
+        <v>0.0</v>
       </c>
       <c r="J200" t="n">
-        <v>0.2952916665558333</v>
+        <v>0.0</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2952916665558333</v>
+        <v>0.0</v>
       </c>
       <c r="L200" t="n">
-        <v>0.2952916665558333</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="201">
@@ -8159,37 +8159,37 @@
         <v>212.0</v>
       </c>
       <c r="B213" t="n">
-        <v>0.6124999998366666</v>
+        <v>0.0</v>
       </c>
       <c r="C213" t="n">
-        <v>0.6124999998366666</v>
+        <v>0.0</v>
       </c>
       <c r="D213" t="n">
-        <v>0.6124999998366666</v>
+        <v>0.0</v>
       </c>
       <c r="E213" t="n">
-        <v>0.6124999998366666</v>
+        <v>0.0</v>
       </c>
       <c r="F213" t="n">
-        <v>0.6124999998366666</v>
+        <v>0.0</v>
       </c>
       <c r="G213" t="n">
-        <v>0.6124999998366666</v>
+        <v>0.0</v>
       </c>
       <c r="H213" t="n">
-        <v>0.6124999998366666</v>
+        <v>0.0</v>
       </c>
       <c r="I213" t="n">
-        <v>0.6124999998366666</v>
+        <v>0.0</v>
       </c>
       <c r="J213" t="n">
-        <v>0.6124999998366666</v>
+        <v>0.0</v>
       </c>
       <c r="K213" t="n">
-        <v>0.6124999998366666</v>
+        <v>0.0</v>
       </c>
       <c r="L213" t="n">
-        <v>0.6124999998366666</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="214">
@@ -8197,37 +8197,37 @@
         <v>213.0</v>
       </c>
       <c r="B214" t="n">
-        <v>0.9281249997525001</v>
+        <v>0.0</v>
       </c>
       <c r="C214" t="n">
-        <v>0.9281249997525001</v>
+        <v>0.0</v>
       </c>
       <c r="D214" t="n">
-        <v>0.9281249997525001</v>
+        <v>0.0</v>
       </c>
       <c r="E214" t="n">
-        <v>0.9281249997525001</v>
+        <v>0.0</v>
       </c>
       <c r="F214" t="n">
-        <v>0.9281249997525001</v>
+        <v>0.0</v>
       </c>
       <c r="G214" t="n">
-        <v>0.9281249997525001</v>
+        <v>0.0</v>
       </c>
       <c r="H214" t="n">
-        <v>0.9281249997525001</v>
+        <v>0.0</v>
       </c>
       <c r="I214" t="n">
-        <v>0.9281249997525001</v>
+        <v>0.0</v>
       </c>
       <c r="J214" t="n">
-        <v>0.9281249997525001</v>
+        <v>0.0</v>
       </c>
       <c r="K214" t="n">
-        <v>0.9281249997525001</v>
+        <v>0.0</v>
       </c>
       <c r="L214" t="n">
-        <v>0.9281249997525001</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="215">
@@ -8387,37 +8387,37 @@
         <v>218.0</v>
       </c>
       <c r="B219" t="n">
-        <v>0.9281249997525001</v>
+        <v>0.0</v>
       </c>
       <c r="C219" t="n">
-        <v>0.9281249997525001</v>
+        <v>0.0</v>
       </c>
       <c r="D219" t="n">
-        <v>0.9281249997525001</v>
+        <v>0.0</v>
       </c>
       <c r="E219" t="n">
-        <v>0.9281249997525001</v>
+        <v>0.0</v>
       </c>
       <c r="F219" t="n">
-        <v>0.9281249997525001</v>
+        <v>0.0</v>
       </c>
       <c r="G219" t="n">
-        <v>0.9281249997525001</v>
+        <v>0.0</v>
       </c>
       <c r="H219" t="n">
-        <v>0.9281249997525001</v>
+        <v>0.0</v>
       </c>
       <c r="I219" t="n">
-        <v>0.9281249997525001</v>
+        <v>0.0</v>
       </c>
       <c r="J219" t="n">
-        <v>0.9281249997525001</v>
+        <v>0.0</v>
       </c>
       <c r="K219" t="n">
-        <v>0.9281249997525001</v>
+        <v>0.0</v>
       </c>
       <c r="L219" t="n">
-        <v>0.9281249997525001</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="220">
@@ -11807,37 +11807,37 @@
         <v>308.0</v>
       </c>
       <c r="B309" t="n">
-        <v>0.652197368564</v>
+        <v>0.0</v>
       </c>
       <c r="C309" t="n">
-        <v>0.652197368564</v>
+        <v>0.0</v>
       </c>
       <c r="D309" t="n">
-        <v>0.652197368564</v>
+        <v>0.0</v>
       </c>
       <c r="E309" t="n">
-        <v>0.652197368564</v>
+        <v>0.0</v>
       </c>
       <c r="F309" t="n">
-        <v>0.652197368564</v>
+        <v>0.0</v>
       </c>
       <c r="G309" t="n">
-        <v>0.652197368564</v>
+        <v>0.0</v>
       </c>
       <c r="H309" t="n">
-        <v>0.652197368564</v>
+        <v>0.0</v>
       </c>
       <c r="I309" t="n">
-        <v>0.652197368564</v>
+        <v>0.0</v>
       </c>
       <c r="J309" t="n">
-        <v>0.652197368564</v>
+        <v>0.0</v>
       </c>
       <c r="K309" t="n">
-        <v>0.652197368564</v>
+        <v>0.0</v>
       </c>
       <c r="L309" t="n">
-        <v>0.652197368564</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="310">
@@ -13061,37 +13061,37 @@
         <v>341.0</v>
       </c>
       <c r="B342" t="n">
-        <v>5.0980263180000005</v>
+        <v>0.0</v>
       </c>
       <c r="C342" t="n">
-        <v>5.0980263180000005</v>
+        <v>0.0</v>
       </c>
       <c r="D342" t="n">
-        <v>5.0980263180000005</v>
+        <v>0.0</v>
       </c>
       <c r="E342" t="n">
-        <v>5.0980263180000005</v>
+        <v>0.0</v>
       </c>
       <c r="F342" t="n">
-        <v>5.0980263180000005</v>
+        <v>0.0</v>
       </c>
       <c r="G342" t="n">
-        <v>5.0980263180000005</v>
+        <v>0.0</v>
       </c>
       <c r="H342" t="n">
-        <v>5.0980263180000005</v>
+        <v>0.0</v>
       </c>
       <c r="I342" t="n">
-        <v>5.0980263180000005</v>
+        <v>0.0</v>
       </c>
       <c r="J342" t="n">
-        <v>5.0980263180000005</v>
+        <v>0.0</v>
       </c>
       <c r="K342" t="n">
-        <v>5.0980263180000005</v>
+        <v>0.0</v>
       </c>
       <c r="L342" t="n">
-        <v>5.0980263180000005</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="343">
@@ -14163,37 +14163,37 @@
         <v>370.0</v>
       </c>
       <c r="B371" t="n">
-        <v>2.052584210418</v>
+        <v>0.0</v>
       </c>
       <c r="C371" t="n">
-        <v>2.052584210418</v>
+        <v>0.0</v>
       </c>
       <c r="D371" t="n">
-        <v>2.052584210418</v>
+        <v>0.0</v>
       </c>
       <c r="E371" t="n">
-        <v>2.052584210418</v>
+        <v>0.0</v>
       </c>
       <c r="F371" t="n">
-        <v>2.052584210418</v>
+        <v>0.0</v>
       </c>
       <c r="G371" t="n">
-        <v>2.052584210418</v>
+        <v>0.0</v>
       </c>
       <c r="H371" t="n">
-        <v>2.052584210418</v>
+        <v>0.0</v>
       </c>
       <c r="I371" t="n">
-        <v>2.052584210418</v>
+        <v>0.0</v>
       </c>
       <c r="J371" t="n">
-        <v>2.052584210418</v>
+        <v>0.0</v>
       </c>
       <c r="K371" t="n">
-        <v>2.052584210418</v>
+        <v>0.0</v>
       </c>
       <c r="L371" t="n">
-        <v>2.052584210418</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="372">
@@ -15151,37 +15151,37 @@
         <v>396.0</v>
       </c>
       <c r="B397" t="n">
-        <v>1.418936841672</v>
+        <v>0.0</v>
       </c>
       <c r="C397" t="n">
-        <v>1.418936841672</v>
+        <v>0.0</v>
       </c>
       <c r="D397" t="n">
-        <v>1.418936841672</v>
+        <v>0.0</v>
       </c>
       <c r="E397" t="n">
-        <v>1.418936841672</v>
+        <v>0.0</v>
       </c>
       <c r="F397" t="n">
-        <v>1.418936841672</v>
+        <v>0.0</v>
       </c>
       <c r="G397" t="n">
-        <v>1.418936841672</v>
+        <v>0.0</v>
       </c>
       <c r="H397" t="n">
-        <v>1.418936841672</v>
+        <v>0.0</v>
       </c>
       <c r="I397" t="n">
-        <v>1.418936841672</v>
+        <v>0.0</v>
       </c>
       <c r="J397" t="n">
-        <v>1.418936841672</v>
+        <v>0.0</v>
       </c>
       <c r="K397" t="n">
-        <v>1.418936841672</v>
+        <v>0.0</v>
       </c>
       <c r="L397" t="n">
-        <v>1.418936841672</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="398">
@@ -15721,37 +15721,37 @@
         <v>411.0</v>
       </c>
       <c r="B412" t="n">
-        <v>0.31587499999999996</v>
+        <v>0.0</v>
       </c>
       <c r="C412" t="n">
-        <v>0.31587499999999996</v>
+        <v>0.0</v>
       </c>
       <c r="D412" t="n">
-        <v>0.31587499999999996</v>
+        <v>0.0</v>
       </c>
       <c r="E412" t="n">
-        <v>0.31587499999999996</v>
+        <v>0.0</v>
       </c>
       <c r="F412" t="n">
-        <v>0.31587499999999996</v>
+        <v>0.0</v>
       </c>
       <c r="G412" t="n">
-        <v>0.31587499999999996</v>
+        <v>0.0</v>
       </c>
       <c r="H412" t="n">
-        <v>0.31587499999999996</v>
+        <v>0.0</v>
       </c>
       <c r="I412" t="n">
-        <v>0.31587499999999996</v>
+        <v>0.0</v>
       </c>
       <c r="J412" t="n">
-        <v>0.31587499999999996</v>
+        <v>0.0</v>
       </c>
       <c r="K412" t="n">
-        <v>0.31587499999999996</v>
+        <v>0.0</v>
       </c>
       <c r="L412" t="n">
-        <v>0.31587499999999996</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="413">
@@ -19559,37 +19559,37 @@
         <v>512.0</v>
       </c>
       <c r="B513" t="n">
-        <v>0.31762500003499994</v>
+        <v>0.0</v>
       </c>
       <c r="C513" t="n">
-        <v>0.31762500003499994</v>
+        <v>0.0</v>
       </c>
       <c r="D513" t="n">
-        <v>0.31762500003499994</v>
+        <v>0.0</v>
       </c>
       <c r="E513" t="n">
-        <v>0.31762500003499994</v>
+        <v>0.0</v>
       </c>
       <c r="F513" t="n">
-        <v>0.31762500003499994</v>
+        <v>0.0</v>
       </c>
       <c r="G513" t="n">
-        <v>0.31762500003499994</v>
+        <v>0.0</v>
       </c>
       <c r="H513" t="n">
-        <v>0.31762500003499994</v>
+        <v>0.0</v>
       </c>
       <c r="I513" t="n">
-        <v>0.31762500003499994</v>
+        <v>0.0</v>
       </c>
       <c r="J513" t="n">
-        <v>0.31762500003499994</v>
+        <v>0.0</v>
       </c>
       <c r="K513" t="n">
-        <v>0.31762500003499994</v>
+        <v>0.0</v>
       </c>
       <c r="L513" t="n">
-        <v>0.31762500003499994</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="514">
@@ -20927,37 +20927,37 @@
         <v>548.0</v>
       </c>
       <c r="B549" t="n">
-        <v>0.658921052776</v>
+        <v>0.0</v>
       </c>
       <c r="C549" t="n">
-        <v>0.658921052776</v>
+        <v>0.0</v>
       </c>
       <c r="D549" t="n">
-        <v>0.658921052776</v>
+        <v>0.0</v>
       </c>
       <c r="E549" t="n">
-        <v>0.658921052776</v>
+        <v>0.0</v>
       </c>
       <c r="F549" t="n">
-        <v>0.658921052776</v>
+        <v>0.0</v>
       </c>
       <c r="G549" t="n">
-        <v>0.658921052776</v>
+        <v>0.0</v>
       </c>
       <c r="H549" t="n">
-        <v>0.658921052776</v>
+        <v>0.0</v>
       </c>
       <c r="I549" t="n">
-        <v>0.658921052776</v>
+        <v>0.0</v>
       </c>
       <c r="J549" t="n">
-        <v>0.658921052776</v>
+        <v>0.0</v>
       </c>
       <c r="K549" t="n">
-        <v>0.658921052776</v>
+        <v>0.0</v>
       </c>
       <c r="L549" t="n">
-        <v>0.658921052776</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="550">
@@ -21193,37 +21193,37 @@
         <v>555.0</v>
       </c>
       <c r="B556" t="n">
-        <v>0.9481500003429999</v>
+        <v>0.0</v>
       </c>
       <c r="C556" t="n">
-        <v>0.9481500003429999</v>
+        <v>0.0</v>
       </c>
       <c r="D556" t="n">
-        <v>0.9481500003429999</v>
+        <v>0.0</v>
       </c>
       <c r="E556" t="n">
-        <v>0.9481500003429999</v>
+        <v>0.0</v>
       </c>
       <c r="F556" t="n">
-        <v>0.9481500003429999</v>
+        <v>0.0</v>
       </c>
       <c r="G556" t="n">
-        <v>0.9481500003429999</v>
+        <v>0.0</v>
       </c>
       <c r="H556" t="n">
-        <v>0.9481500003429999</v>
+        <v>0.0</v>
       </c>
       <c r="I556" t="n">
-        <v>0.9481500003429999</v>
+        <v>0.0</v>
       </c>
       <c r="J556" t="n">
-        <v>0.9481500003429999</v>
+        <v>0.0</v>
       </c>
       <c r="K556" t="n">
-        <v>0.9481500003429999</v>
+        <v>0.0</v>
       </c>
       <c r="L556" t="n">
-        <v>0.9481500003429999</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="557">
@@ -21307,37 +21307,37 @@
         <v>558.0</v>
       </c>
       <c r="B559" t="n">
-        <v>0.3144416668121666</v>
+        <v>0.0</v>
       </c>
       <c r="C559" t="n">
-        <v>0.3144416668121666</v>
+        <v>0.0</v>
       </c>
       <c r="D559" t="n">
-        <v>0.3144416668121666</v>
+        <v>0.0</v>
       </c>
       <c r="E559" t="n">
-        <v>0.3144416668121666</v>
+        <v>0.0</v>
       </c>
       <c r="F559" t="n">
-        <v>0.3144416668121666</v>
+        <v>0.0</v>
       </c>
       <c r="G559" t="n">
-        <v>0.3144416668121666</v>
+        <v>0.0</v>
       </c>
       <c r="H559" t="n">
-        <v>0.3144416668121666</v>
+        <v>0.0</v>
       </c>
       <c r="I559" t="n">
-        <v>0.3144416668121666</v>
+        <v>0.0</v>
       </c>
       <c r="J559" t="n">
-        <v>0.3144416668121666</v>
+        <v>0.0</v>
       </c>
       <c r="K559" t="n">
-        <v>0.3144416668121666</v>
+        <v>0.0</v>
       </c>
       <c r="L559" t="n">
-        <v>0.3144416668121666</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="560">
@@ -22257,37 +22257,37 @@
         <v>583.0</v>
       </c>
       <c r="B584" t="n">
-        <v>0.347374999965</v>
+        <v>0.0</v>
       </c>
       <c r="C584" t="n">
-        <v>0.347374999965</v>
+        <v>0.0</v>
       </c>
       <c r="D584" t="n">
-        <v>0.347374999965</v>
+        <v>0.0</v>
       </c>
       <c r="E584" t="n">
-        <v>0.347374999965</v>
+        <v>0.0</v>
       </c>
       <c r="F584" t="n">
-        <v>0.347374999965</v>
+        <v>0.0</v>
       </c>
       <c r="G584" t="n">
-        <v>0.347374999965</v>
+        <v>0.0</v>
       </c>
       <c r="H584" t="n">
-        <v>0.347374999965</v>
+        <v>0.0</v>
       </c>
       <c r="I584" t="n">
-        <v>0.347374999965</v>
+        <v>0.0</v>
       </c>
       <c r="J584" t="n">
-        <v>0.347374999965</v>
+        <v>0.0</v>
       </c>
       <c r="K584" t="n">
-        <v>0.347374999965</v>
+        <v>0.0</v>
       </c>
       <c r="L584" t="n">
-        <v>0.347374999965</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="585">
@@ -22599,37 +22599,37 @@
         <v>592.0</v>
       </c>
       <c r="B593" t="n">
-        <v>2.7695249989604998</v>
+        <v>0.0</v>
       </c>
       <c r="C593" t="n">
-        <v>2.7695249989604998</v>
+        <v>0.0</v>
       </c>
       <c r="D593" t="n">
-        <v>2.7695249989604998</v>
+        <v>0.0</v>
       </c>
       <c r="E593" t="n">
-        <v>2.7695249989604998</v>
+        <v>0.0</v>
       </c>
       <c r="F593" t="n">
-        <v>2.7695249989604998</v>
+        <v>0.0</v>
       </c>
       <c r="G593" t="n">
-        <v>2.7695249989604998</v>
+        <v>0.0</v>
       </c>
       <c r="H593" t="n">
-        <v>2.7695249989604998</v>
+        <v>0.0</v>
       </c>
       <c r="I593" t="n">
-        <v>2.7695249989604998</v>
+        <v>0.0</v>
       </c>
       <c r="J593" t="n">
-        <v>2.7695249989604998</v>
+        <v>0.0</v>
       </c>
       <c r="K593" t="n">
-        <v>2.7695249989604998</v>
+        <v>0.0</v>
       </c>
       <c r="L593" t="n">
-        <v>2.7695249989604998</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="594">
@@ -22979,37 +22979,37 @@
         <v>602.0</v>
       </c>
       <c r="B603" t="n">
-        <v>0.2918083333333333</v>
+        <v>0.0</v>
       </c>
       <c r="C603" t="n">
-        <v>0.2918083333333333</v>
+        <v>0.0</v>
       </c>
       <c r="D603" t="n">
-        <v>0.2918083333333333</v>
+        <v>0.0</v>
       </c>
       <c r="E603" t="n">
-        <v>0.2918083333333333</v>
+        <v>0.0</v>
       </c>
       <c r="F603" t="n">
-        <v>0.2918083333333333</v>
+        <v>0.0</v>
       </c>
       <c r="G603" t="n">
-        <v>0.2918083333333333</v>
+        <v>0.0</v>
       </c>
       <c r="H603" t="n">
-        <v>0.2918083333333333</v>
+        <v>0.0</v>
       </c>
       <c r="I603" t="n">
-        <v>0.2918083333333333</v>
+        <v>0.0</v>
       </c>
       <c r="J603" t="n">
-        <v>0.2918083333333333</v>
+        <v>0.0</v>
       </c>
       <c r="K603" t="n">
-        <v>0.2918083333333333</v>
+        <v>0.0</v>
       </c>
       <c r="L603" t="n">
-        <v>0.2918083333333333</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="604">
@@ -23207,37 +23207,37 @@
         <v>608.0</v>
       </c>
       <c r="B609" t="n">
-        <v>-0.6807868421409999</v>
+        <v>-0.0</v>
       </c>
       <c r="C609" t="n">
-        <v>-0.6807868421409999</v>
+        <v>-0.0</v>
       </c>
       <c r="D609" t="n">
-        <v>-0.6807868421409999</v>
+        <v>-0.0</v>
       </c>
       <c r="E609" t="n">
-        <v>-0.6807868421409999</v>
+        <v>-0.0</v>
       </c>
       <c r="F609" t="n">
-        <v>-0.6807868421409999</v>
+        <v>-0.0</v>
       </c>
       <c r="G609" t="n">
-        <v>-0.6807868421409999</v>
+        <v>-0.0</v>
       </c>
       <c r="H609" t="n">
-        <v>-0.6807868421409999</v>
+        <v>-0.0</v>
       </c>
       <c r="I609" t="n">
-        <v>-0.6807868421409999</v>
+        <v>-0.0</v>
       </c>
       <c r="J609" t="n">
-        <v>-0.6807868421409999</v>
+        <v>-0.0</v>
       </c>
       <c r="K609" t="n">
-        <v>-0.6807868421409999</v>
+        <v>-0.0</v>
       </c>
       <c r="L609" t="n">
-        <v>-0.6807868421409999</v>
+        <v>-0.0</v>
       </c>
     </row>
     <row r="610">
